--- a/MCQ_Assessment.xlsx
+++ b/MCQ_Assessment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="4">
   <si>
     <t>D</t>
   </si>
@@ -1967,101 +1967,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
